--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -1505,12 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>107246</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Godkänd baserat på determinatörs verifiering</t>
-        </is>
+        <v>110245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1542,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>456922.1424461872</v>
+        <v>456922</v>
       </c>
       <c r="R9" t="n">
-        <v>6200655.433266406</v>
+        <v>6200655</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1580,19 +1575,9 @@
           <t>1995-06-05</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>1995-06-05</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -1505,7 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>110245</v>
+        <v>110252</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -1505,7 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>110252</v>
+        <v>110255</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -1505,7 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>110255</v>
+        <v>110256</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -1505,7 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>110256</v>
+        <v>110257</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -809,7 +809,7 @@
         <v>64121998</v>
       </c>
       <c r="B3" t="n">
-        <v>98698</v>
+        <v>99046</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -809,7 +809,7 @@
         <v>64121998</v>
       </c>
       <c r="B3" t="n">
-        <v>99046</v>
+        <v>99049</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>110257</v>
+        <v>110260</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 9048-2024 artfynd.xlsx
+++ b/artfynd/A 9048-2024 artfynd.xlsx
@@ -809,7 +809,7 @@
         <v>64121998</v>
       </c>
       <c r="B3" t="n">
-        <v>99049</v>
+        <v>99050</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>900044</v>
       </c>
       <c r="B9" t="n">
-        <v>110260</v>
+        <v>110270</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
